--- a/SCH-STH/Impact assessments/DRC/cd_sch_sth_baseline_5_cca_202202.xlsx
+++ b/SCH-STH/Impact assessments/DRC/cd_sch_sth_baseline_5_cca_202202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>type</t>
   </si>
@@ -90,6 +90,12 @@
     <t xml:space="preserve">Village (niveau admin 5) </t>
   </si>
   <si>
+    <t>c_ecole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom de l’école </t>
+  </si>
+  <si>
     <t>c_code_ecole</t>
   </si>
   <si>
@@ -99,27 +105,6 @@
     <t>Code à trois chiffre. Ex : 001</t>
   </si>
   <si>
-    <t>select_one p_IDMethod</t>
-  </si>
-  <si>
-    <t>c_IDType</t>
-  </si>
-  <si>
-    <t>Est-ce que le code barre du test de diagnostique a besoin d'être scanner?</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>c_BarcodeID</t>
-  </si>
-  <si>
-    <t>Scanner le code barre</t>
-  </si>
-  <si>
-    <t>${c_IDType} = 'Scanner'</t>
-  </si>
-  <si>
     <t>c_generateID</t>
   </si>
   <si>
@@ -132,9 +117,6 @@
     <t>Le format doit être 123-1234-567</t>
   </si>
   <si>
-    <t>${c_IDType} != 'Scanner'</t>
-  </si>
-  <si>
     <t>c_generateID2</t>
   </si>
   <si>
@@ -228,10 +210,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>5. SCH/STH - POC CCA</t>
-  </si>
-  <si>
-    <t>cd_sch_sth_baseline_5_cca_202202</t>
+    <t>5. SCH/STH - POC CCA V2</t>
+  </si>
+  <si>
+    <t>cd_sch_sth_baseline_5_cca_202202_v2</t>
   </si>
   <si>
     <t>English</t>
@@ -242,10 +224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -279,6 +261,141 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -287,67 +404,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -355,80 +411,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -445,103 +427,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,79 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,17 +636,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,17 +675,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,179 +719,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -955,10 +937,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,14 +1269,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1433,32 +1415,32 @@
       <c r="C5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:12">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="28.5" spans="1:12">
-      <c r="A6" s="7" t="s">
+      <c r="C6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="16"/>
       <c r="H6" s="11"/>
@@ -1467,25 +1449,27 @@
         <v>18</v>
       </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="20"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:12">
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="42.75" spans="1:12">
       <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="F7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
         <v>18</v>
@@ -1493,27 +1477,25 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="42.75" spans="1:12">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="13" customFormat="1" spans="1:12">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
         <v>18</v>
@@ -1523,25 +1505,19 @@
     </row>
     <row r="9" s="13" customFormat="1" spans="1:12">
       <c r="A9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
         <v>18</v>
@@ -1551,13 +1527,13 @@
     </row>
     <row r="10" s="13" customFormat="1" spans="1:12">
       <c r="A10" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="11"/>
@@ -1565,101 +1541,93 @@
       <c r="G10" s="16"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" s="13" customFormat="1" spans="1:12">
-      <c r="A11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+    <row r="11" s="3" customFormat="1" spans="1:12">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:12">
       <c r="A13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:12">
       <c r="A14" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:12">
-      <c r="A15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>55</v>
-      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="18"/>
@@ -1669,7 +1637,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="18"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="22"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="8"/>
       <c r="J16" s="11"/>
       <c r="K16" s="8"/>
@@ -1683,7 +1651,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="18"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="22"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="8"/>
       <c r="J17" s="11"/>
       <c r="K17" s="8"/>
@@ -1697,21 +1665,21 @@
       <c r="E18" s="8"/>
       <c r="F18" s="18"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="22"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="8"/>
       <c r="J18" s="11"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="18"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
       <c r="F19" s="18"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="22"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="8"/>
       <c r="J19" s="11"/>
       <c r="K19" s="8"/>
@@ -1725,39 +1693,25 @@
       <c r="E20" s="8"/>
       <c r="F20" s="18"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="22"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="8"/>
       <c r="J20" s="11"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="7"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
       <c r="F21" s="18"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="22"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="8"/>
       <c r="J21" s="11"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1771,7 +1725,7 @@
   <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD6"/>
@@ -1786,7 +1740,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -1797,57 +1751,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1946,7 +1900,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1957,24 +1911,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
